--- a/6 3 - Example/ExactModelData.xlsx
+++ b/6 3 - Example/ExactModelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\6 3 - Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34664986-7539-4249-B989-966415FD5AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D394D98-2B60-40DD-A511-D9AC438F4B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C0579B3-B799-456F-9455-9CE2B43ECD98}" type="CELLRANGE">
+                    <a:fld id="{0A961D2A-59AF-4D56-A7E6-94BD31E3A210}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -394,7 +394,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36D7639F-E01E-449D-BB42-4D9200FA4A4F}" type="CELLRANGE">
+                    <a:fld id="{04112AB9-D119-451F-A8E3-2A8E679536FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -428,7 +428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5659E4AA-6DCE-49B9-8F10-806354D910B0}" type="CELLRANGE">
+                    <a:fld id="{07037516-C3D9-48EF-8D31-AE37BD8A9F9D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -462,7 +462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28537EB0-6F3D-4F78-9265-60278DB2BDE1}" type="CELLRANGE">
+                    <a:fld id="{FF24EBF2-78DD-4A83-9F4D-35A61A50D9B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -496,7 +496,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6ACB70CE-D970-42B4-BCA7-84C8DED24FA1}" type="CELLRANGE">
+                    <a:fld id="{4F37306C-4395-433F-AA9C-27C6810E87C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -530,7 +530,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93913069-AD2B-43C5-8571-57808F985AFE}" type="CELLRANGE">
+                    <a:fld id="{90DA0F42-2B71-4BF5-8E7A-3993444C15BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -564,7 +564,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E7D6D53-399D-4F07-9589-94A58C132452}" type="CELLRANGE">
+                    <a:fld id="{8B9FE1C5-D02D-4170-BCF1-A54E97DF37CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1005,7 +1005,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88CFA39A-D487-444A-9028-C8E74D6EC42C}" type="CELLRANGE">
+                    <a:fld id="{D27A1462-97B2-4A96-8DF7-CFD84AF661F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1039,7 +1039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDE57D85-2F29-456A-AD14-CD2AEF3CD143}" type="CELLRANGE">
+                    <a:fld id="{A329E809-2BFB-43F2-B3D5-2FC1E652A4DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1073,7 +1073,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FB277F3-D04E-4393-BB67-8C47AFE6F113}" type="CELLRANGE">
+                    <a:fld id="{2537F5BB-E84A-4B97-AC09-DE64F88BC84B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1082,7 +1082,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1092,7 +1092,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1107,7 +1106,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{469BE179-A110-4707-BA47-813EBA262727}" type="CELLRANGE">
+                    <a:fld id="{3FA495CB-29AC-4083-85A5-31603DE1FCA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1151,7 +1150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36A9B806-A7C1-49BF-9F47-8EFF52F84B07}" type="CELLRANGE">
+                    <a:fld id="{494A7403-5331-45DC-80B4-E2EBB2B7C37F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1185,7 +1184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BADC99B-CBCF-4F2B-A972-ED8FF6BE9130}" type="CELLRANGE">
+                    <a:fld id="{ED2C9174-D901-4CEB-B4D4-C582103961EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1219,7 +1218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76FE5CFC-9057-44EC-955F-64391DB46837}" type="CELLRANGE">
+                    <a:fld id="{304E413B-73D0-4E1E-BE3F-0AA05308EE91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3080,8 +3079,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,11 +3209,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.96041741716813167</v>
+        <v>1.0338139980418743</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>10.702939187056144</v>
+        <v>8.8166732819955644</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -3268,11 +3267,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>0.94935804057924855</v>
+        <v>0.93382660423912944</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>8.4435660868218108</v>
+        <v>9.7870522615235611</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -3326,11 +3325,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>1.4916239913010414</v>
+        <v>1.438995351064696</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>13.435797807615641</v>
+        <v>10.539445505900492</v>
       </c>
       <c r="U4">
         <v>30</v>
